--- a/DB Struct/Trading Journal DB Struct.xlsx
+++ b/DB Struct/Trading Journal DB Struct.xlsx
@@ -19,6 +19,53 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+  <si>
+    <t xml:space="preserve">User</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RoleId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Username</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User Details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UserId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lastname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mobile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
@@ -29,6 +76,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -110,14 +158,94 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
